--- a/ProductTaxes.xlsx
+++ b/ProductTaxes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Vendor</t>
   </si>
@@ -27,15 +27,6 @@
   </si>
   <si>
     <t>Financial Result</t>
-  </si>
-  <si>
-    <t>Zagorka Corp.</t>
-  </si>
-  <si>
-    <t>Targovishte Bottling Company Ltd.</t>
-  </si>
-  <si>
-    <t>Nestle Sofia Corp.</t>
   </si>
 </sst>
 </file>
@@ -81,13 +72,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.6094948904855" customWidth="1"/>
+    <col min="1" max="1" width="7.86824035644531" customWidth="1"/>
     <col min="2" max="2" width="8.78183746337891" customWidth="1"/>
     <col min="3" max="3" width="9.50514493669782" customWidth="1"/>
     <col min="4" max="4" width="11.280163356236" customWidth="1"/>
@@ -112,59 +103,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="B2" s="0">
-        <v>6.88</v>
-      </c>
-      <c r="C2" s="0">
-        <v>300</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0.172</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0">
-        <v>52.919999999999995</v>
-      </c>
-      <c r="C3" s="0">
-        <v>380</v>
-      </c>
-      <c r="D3" s="0">
-        <v>1.3607999999999998</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0">
-        <v>5.15</v>
-      </c>
-      <c r="C4" s="0">
-        <v>300</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0.20600000000000002</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0">
-        <v>70</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.56</v>
+        <v>1799.02</v>
       </c>
     </row>
   </sheetData>

--- a/ProductTaxes.xlsx
+++ b/ProductTaxes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Vendor</t>
   </si>
@@ -27,6 +27,36 @@
   </si>
   <si>
     <t>Financial Result</t>
+  </si>
+  <si>
+    <t>Nestle Sofia Corp.</t>
+  </si>
+  <si>
+    <t>Zagorka Corp.</t>
+  </si>
+  <si>
+    <t>Targovishte Bottling Company Ltd.</t>
+  </si>
+  <si>
+    <t>Bella Bulgaria AD</t>
+  </si>
+  <si>
+    <t>Victory OOD</t>
+  </si>
+  <si>
+    <t>Coca Cola Corp.</t>
+  </si>
+  <si>
+    <t>Heineken International</t>
+  </si>
+  <si>
+    <t>Carlsberg International</t>
+  </si>
+  <si>
+    <t>Alpina Distribution</t>
+  </si>
+  <si>
+    <t>Aladin OOD</t>
   </si>
 </sst>
 </file>
@@ -34,18 +64,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9A9A9" tint="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,8 +101,10 @@
   <cellStyleXfs count="1">
     <xf fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf fontId="0" applyFont="1" xfId="0"/>
+    <xf fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="0"/>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -72,40 +115,739 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.86824035644531" customWidth="1"/>
-    <col min="2" max="2" width="8.78183746337891" customWidth="1"/>
-    <col min="3" max="3" width="9.50514493669782" customWidth="1"/>
-    <col min="4" max="4" width="11.280163356236" customWidth="1"/>
-    <col min="5" max="5" width="15.0655048915318" customWidth="1"/>
+    <col min="1" max="1" width="31.6094948904855" customWidth="1"/>
+    <col min="2" max="2" width="8.91279002598354" customWidth="1"/>
+    <col min="3" max="3" width="9.66883523123605" customWidth="1"/>
+    <col min="4" max="4" width="11.5441131591797" customWidth="1"/>
+    <col min="5" max="5" width="15.4297158377511" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="0">
-        <v>1799.02</v>
-      </c>
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2">
+        <v>26.32</v>
+      </c>
+      <c r="E2" s="2">
+        <f>B2-C2-D2</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>821.8599999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>164.37199999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <f>B3-C3-D3</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1088.6399999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>380</v>
+      </c>
+      <c r="D4" s="2">
+        <v>217.72799999999995</v>
+      </c>
+      <c r="E4" s="2">
+        <f>B4-C4-D4</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <f>B5-C5-D5</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <f>B6-C6-D6</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f>B7-C7-D7</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <f>B8-C8-D8</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <f>B9-C9-D9</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <f>B10-C10-D10</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <f>B11-C11-D11</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
     </row>
   </sheetData>
   <headerFooter/>

--- a/ProductTaxes.xlsx
+++ b/ProductTaxes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Vendor</t>
   </si>
@@ -29,34 +29,13 @@
     <t>Financial Result</t>
   </si>
   <si>
-    <t>Nestle Sofia Corp.</t>
-  </si>
-  <si>
     <t>Zagorka Corp.</t>
   </si>
   <si>
     <t>Targovishte Bottling Company Ltd.</t>
   </si>
   <si>
-    <t>Bella Bulgaria AD</t>
-  </si>
-  <si>
-    <t>Victory OOD</t>
-  </si>
-  <si>
-    <t>Coca Cola Corp.</t>
-  </si>
-  <si>
-    <t>Heineken International</t>
-  </si>
-  <si>
-    <t>Carlsberg International</t>
-  </si>
-  <si>
-    <t>Alpina Distribution</t>
-  </si>
-  <si>
-    <t>Aladin OOD</t>
+    <t>Nestle Sofia Corp.</t>
   </si>
 </sst>
 </file>
@@ -89,7 +68,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,14 +76,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf fontId="0" applyFont="1" xfId="0"/>
-    <xf fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="0"/>
+    <xf fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
     <xf numFmtId="2" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
+    <xf fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,7 +105,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" view="pageLayout"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -146,174 +134,100 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
+        <v>821.8599999999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>300</v>
+      </c>
+      <c r="D2" s="4">
+        <v>164.37199999999999</v>
+      </c>
+      <c r="E2" s="4">
+        <f>B2-C2-D2</f>
+        <v>357.48799999999994</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1088.6399999999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>380</v>
+      </c>
+      <c r="D3" s="4">
+        <v>217.72799999999995</v>
+      </c>
+      <c r="E3" s="4">
+        <f>B3-C3-D3</f>
+        <v>490.91199999999992</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
         <v>131.6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C4" s="4">
         <v>70</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D4" s="4">
         <v>26.32</v>
       </c>
-      <c r="E2" s="2">
-        <f>B2-C2-D2</f>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>821.8599999999999</v>
-      </c>
-      <c r="C3" s="2">
-        <v>300</v>
-      </c>
-      <c r="D3" s="2">
-        <v>164.37199999999999</v>
-      </c>
-      <c r="E3" s="2">
-        <f>B3-C3-D3</f>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1088.6399999999999</v>
-      </c>
-      <c r="C4" s="2">
-        <v>380</v>
-      </c>
-      <c r="D4" s="2">
-        <v>217.72799999999995</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <f>B4-C4-D4</f>
+        <v>35.279999999999994</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <f>B5-C5-D5</f>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <f>B6-C6-D6</f>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <f>B7-C7-D7</f>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <f>B8-C8-D8</f>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <f>B9-C9-D9</f>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <f>B10-C10-D10</f>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <f>B11-C11-D11</f>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="B12" s="2"/>
@@ -850,6 +764,8 @@
       <c r="E100" s="2"/>
     </row>
   </sheetData>
-  <headerFooter/>
+  <headerFooter differentFirst="1">
+    <firstHeader>&amp;CБаси данъците чуек</firstHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/ProductTaxes.xlsx
+++ b/ProductTaxes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Vendor</t>
   </si>
@@ -29,13 +29,34 @@
     <t>Financial Result</t>
   </si>
   <si>
+    <t>Nestle Sofia Corp.</t>
+  </si>
+  <si>
     <t>Zagorka Corp.</t>
   </si>
   <si>
     <t>Targovishte Bottling Company Ltd.</t>
   </si>
   <si>
-    <t>Nestle Sofia Corp.</t>
+    <t>Coca Cola Corp.</t>
+  </si>
+  <si>
+    <t>Heineken International</t>
+  </si>
+  <si>
+    <t>Carlsberg International</t>
+  </si>
+  <si>
+    <t>Alpina Distribution</t>
+  </si>
+  <si>
+    <t>Aladin OOD</t>
+  </si>
+  <si>
+    <t>Bella Bulgaria AD</t>
+  </si>
+  <si>
+    <t>Victory OOD</t>
   </si>
 </sst>
 </file>
@@ -138,17 +159,17 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>821.8599999999999</v>
+        <v>131.6</v>
       </c>
       <c r="C2" s="4">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4">
-        <v>164.37199999999999</v>
+        <v>26.32</v>
       </c>
       <c r="E2" s="4">
         <f>B2-C2-D2</f>
-        <v>357.48799999999994</v>
+        <v>35.279999999999994</v>
       </c>
     </row>
     <row r="3">
@@ -156,17 +177,17 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>1088.6399999999999</v>
+        <v>821.8599999999999</v>
       </c>
       <c r="C3" s="4">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="D3" s="4">
-        <v>217.72799999999995</v>
+        <v>164.37199999999999</v>
       </c>
       <c r="E3" s="4">
         <f>B3-C3-D3</f>
-        <v>490.91199999999992</v>
+        <v>357.48799999999994</v>
       </c>
     </row>
     <row r="4">
@@ -174,60 +195,144 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>131.6</v>
+        <v>1088.6399999999999</v>
       </c>
       <c r="C4" s="4">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="D4" s="4">
-        <v>26.32</v>
+        <v>217.72799999999995</v>
       </c>
       <c r="E4" s="4">
         <f>B4-C4-D4</f>
-        <v>35.279999999999994</v>
+        <v>490.91199999999992</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f>B5-C5-D5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>B6-C6-D6</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>B7-C7-D7</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f>B8-C8-D8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f>B9-C9-D9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>B10-C10-D10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <f>B11-C11-D11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="2"/>
